--- a/travel_agent_conversation_flow.xlsx
+++ b/travel_agent_conversation_flow.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
   <si>
     <t>Step</t>
   </si>
@@ -22,6 +22,12 @@
     <t>User Message</t>
   </si>
   <si>
+    <t>Assistant Message</t>
+  </si>
+  <si>
+    <t>Persona</t>
+  </si>
+  <si>
     <t>Greeting and Initial Engagement</t>
   </si>
   <si>
@@ -128,6 +134,90 @@
   </si>
   <si>
     <t>All done! I’ll email your itinerary shortly. If you need anything else, feel free to reach out. Safe travels!</t>
+  </si>
+  <si>
+    <t>Hi! I'm here to help you with your travel plans. What can I assist you with today?</t>
+  </si>
+  <si>
+    <t>I can help with either! Do you already have a destination in mind, or would you like some suggestions?</t>
+  </si>
+  <si>
+    <t>What type of vacation are you thinking about? Beach, city, or adventure?</t>
+  </si>
+  <si>
+    <t>That sounds wonderful! I can suggest a few options. Do you prefer a relaxing beach getaway, a bustling city, or a nature adventure?</t>
+  </si>
+  <si>
+    <t>I'd be happy to help with suggestions. Where would you like to go?</t>
+  </si>
+  <si>
+    <t>Are you looking for something luxurious or more laid-back? Let me know your style!</t>
+  </si>
+  <si>
+    <t>Please let me know your budget, and I'll find options that match!</t>
+  </si>
+  <si>
+    <t>Let's find a package within your budget! What price range are you considering?</t>
+  </si>
+  <si>
+    <t>I can suggest both budget and luxury options. Would you like to hear about both?</t>
+  </si>
+  <si>
+    <t>When would you like to travel? Let me know the dates, and I'll check availability!</t>
+  </si>
+  <si>
+    <t>Are your dates fixed, or are you flexible? I can help you find the best options!</t>
+  </si>
+  <si>
+    <t>How long do you want your trip to be? I have some great ideas depending on your timeline!</t>
+  </si>
+  <si>
+    <t>We can customize your package with extra services like transfers or special tours. Any preferences?</t>
+  </si>
+  <si>
+    <t>Would you like to add something special like a guided tour or VIP experience to your package?</t>
+  </si>
+  <si>
+    <t>Would you like me to include a hotel, rental car, or even a spa experience as part of your package?</t>
+  </si>
+  <si>
+    <t>I can check for any seasonal or exclusive offers! Would you like to see what discounts are available?</t>
+  </si>
+  <si>
+    <t>Let me know if you'd like more details on our current offers. I can find the best deals for your travel dates!</t>
+  </si>
+  <si>
+    <t>Let me know if you'd like me to find any exclusive deals for your preferred dates!</t>
+  </si>
+  <si>
+    <t>Shall I go ahead and reserve this package for you? I'll finalize all the details!</t>
+  </si>
+  <si>
+    <t>Everything's ready! Would you like to book your trip today?</t>
+  </si>
+  <si>
+    <t>Let me know your details, and I'll complete your booking right now!</t>
+  </si>
+  <si>
+    <t>Please provide your payment details, and I'll finalize your booking for you.</t>
+  </si>
+  <si>
+    <t>I’ll finalize your reservation as soon as I have your payment details. What’s your preferred payment method?</t>
+  </si>
+  <si>
+    <t>Once your payment is processed, I'll send you all the details. Let me know if you need anything else in the meantime!</t>
+  </si>
+  <si>
+    <t>Your booking is confirmed! I'll send the details shortly. Have a wonderful trip!</t>
+  </si>
+  <si>
+    <t>All set for your getaway! Have an amazing trip!</t>
+  </si>
+  <si>
+    <t>All done! I’ll email your itinerary shortly. Safe travels!</t>
+  </si>
+  <si>
+    <t>Olivia (Concierge)</t>
   </si>
 </sst>
 </file>
@@ -485,234 +575,402 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
       <c r="B26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
